--- a/medicine/Premiers secours et secourisme/Treize_Vies/Treize_Vies.xlsx
+++ b/medicine/Premiers secours et secourisme/Treize_Vies/Treize_Vies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Treize Vies (Thirteen Lives) est un film dramatique américano-britannique réalisé par Ron Howard et sorti en 2022. Il revient sur les opérations de secours de la grotte de Tham Luang en Thaïlande, en 2018.
 Le film sort en sortie limitée en salles dans certains pays mais est majoritairement diffusé sur Prime Video.
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juin 2018, douze jeunes footballeurs d'une équipe de football et leur entraîneur se retrouvent bloqués dans une grotte du massif de Doi Nang Non, en Thaïlande. En raison d'une importante montée des eaux, l'opération de sauvetage prend du temps, malgré les énormes moyens déployés. De nombreux experts étrangers viennent en aide aux autorités thaïlandaises, dont les Britanniques Rick Stanton et John Volanthen, spécialistes de la plongée souterraine et membres de la Cave Rescue Organisation[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juin 2018, douze jeunes footballeurs d'une équipe de football et leur entraîneur se retrouvent bloqués dans une grotte du massif de Doi Nang Non, en Thaïlande. En raison d'une importante montée des eaux, l'opération de sauvetage prend du temps, malgré les énormes moyens déployés. De nombreux experts étrangers viennent en aide aux autorités thaïlandaises, dont les Britanniques Rick Stanton et John Volanthen, spécialistes de la plongée souterraine et membres de la Cave Rescue Organisation.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Thirteen Lives
@@ -565,10 +581,10 @@
 Format : couleur
 Genre : drame, survie
 Durée : 149 minutes
-Dates de sortie[2] :
+Dates de sortie :
 États-Unis : 29 juillet 2022 (sortie limitée)
 France : 5 août 2022 (Prime Video)
-Classification[3] :
+Classification :
 États-Unis : PG-13</t>
         </is>
       </c>
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Viggo Mortensen (VF : Bernard Gabay ; VQ : Pierre Auger) : Rick Stanton (en), spécialiste de la plongée souterraine
 Colin Farrell (VF : Boris Rehlinger ; VQ : Martin Watier) : John Volanthen (en), spécialiste de la plongée souterraine et membre de la Cave Rescue Organisation
@@ -640,11 +658,13 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En avril 2020, Ron Howard est annoncé comme réalisateur d'un film basé sur les opérations de secours de la grotte de Tham Luang en Thaïlande en 2018, d'après un scénario écrit par William Nicholson[4]. En mai, Metro-Goldwyn-Mayer acquiert les droits du film[5].
-En mars 2021, Viggo Mortensen, Colin Farrell et Joel Edgerton sont annoncés dans les rôles principaux[6].
-Le tournage débute le 29 mars 2021 en Australie, dans l'État de Queensland. Il se déroule à Gold Coast et ses environs (Village Roadshow Studios, parc national de Springbrook)[7]. Quelques scènes sont filmées en Thaïlande[8],[9],[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 2020, Ron Howard est annoncé comme réalisateur d'un film basé sur les opérations de secours de la grotte de Tham Luang en Thaïlande en 2018, d'après un scénario écrit par William Nicholson. En mai, Metro-Goldwyn-Mayer acquiert les droits du film.
+En mars 2021, Viggo Mortensen, Colin Farrell et Joel Edgerton sont annoncés dans les rôles principaux.
+Le tournage débute le 29 mars 2021 en Australie, dans l'État de Queensland. Il se déroule à Gold Coast et ses environs (Village Roadshow Studios, parc national de Springbrook). Quelques scènes sont filmées en Thaïlande.
 </t>
         </is>
       </c>
@@ -674,6 +694,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
